--- a/dtpu_configurations/only_integer16/30mhz/mxu_18x18/utilization.xlsx
+++ b/dtpu_configurations/only_integer16/30mhz/mxu_18x18/utilization.xlsx
@@ -154,13 +154,13 @@
         <v>8</v>
       </c>
       <c r="B2" t="n" s="4">
-        <v>43.20112609863281</v>
+        <v>76.26691436767578</v>
       </c>
       <c r="C2" t="n" s="4">
-        <v>6.609195709228516</v>
+        <v>7.896551609039307</v>
       </c>
       <c r="D2" t="n" s="4">
-        <v>27.603384017944336</v>
+        <v>40.212406158447266</v>
       </c>
       <c r="E2" t="n" s="4">
         <v>57.85714340209961</v>
@@ -172,7 +172,7 @@
         <v>8.0</v>
       </c>
       <c r="H2" t="n" s="4">
-        <v>3.125</v>
+        <v>6.25</v>
       </c>
     </row>
   </sheetData>
